--- a/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
+++ b/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\03-Construccion\07- Gestion de Calidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93475CB-2233-4C38-ACD9-0F3570A4E3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1585EC-719A-402E-A682-B2AC26D2CF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERS" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
 Descripción:
 Nivel de gravedad:
 Ubicación:
-Si se realizó la misma revision a distintos productos ingrese la palabra "Repetido"
+Si se realizó la misma revisión a distintos productos ingrese la palabra "Repetido"
 </t>
         </r>
       </text>
@@ -572,7 +572,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="113">
   <si>
     <t>Especificación de Requerimientos de Software.</t>
   </si>
@@ -709,9 +709,6 @@
     <t>No existe mitigación</t>
   </si>
   <si>
-    <t>No se realiza re-evalación</t>
-  </si>
-  <si>
     <t>No se realiza revisión-control</t>
   </si>
   <si>
@@ -872,15 +869,6 @@
   </si>
   <si>
     <t>Elaboración 1</t>
-  </si>
-  <si>
-    <t>Construción 3</t>
-  </si>
-  <si>
-    <t>Construción 1</t>
-  </si>
-  <si>
-    <t>Construción 2</t>
   </si>
   <si>
     <t>Elaboracion iteracion 1</t>
@@ -1033,6 +1021,280 @@
   </si>
   <si>
     <t>Plan de Riesgos</t>
+  </si>
+  <si>
+    <t>Índice</t>
+  </si>
+  <si>
+    <t>No se realiza reevaluación</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Error encontrado en el formato de nomenclatura de nombres definido por el grupo de desarrollo OSLO.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Leve.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\05- Gestion de Proyecto\05- Gestion de Proyecto\C107-OSLO - Seguimiento de Riesgos IIII 27-10-2024.docx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: No se encontraron errores de ortografía.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Leve.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\05- Gestion de Proyecto\05- Gestion de Proyecto\C107-OSLO - Seguimiento de Riesgos IIII 27-10-2024.docx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: No se encontraron errores de ortografía.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Leve.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\05- Gestion de Proyecto\C106-OSLO - Identificación, Evaluación y análisis de riesgos - Anexo II 27-10-2024.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Referencia de índice desactualizado.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Leve.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\05- Gestion de Proyecto\C107-OSLO - Seguimiento de Riesgos IIII 27-10-2024.docx</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1896,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
@@ -1912,13 +2174,13 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1937,7 +2199,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L2">
         <f>COUNTIF(A2:A3,"*")</f>
@@ -1961,7 +2223,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L3">
         <f>COUNTIF(A4:A11,"*")</f>
@@ -1982,7 +2244,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1999,7 +2261,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2016,7 +2278,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2033,7 +2295,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2222,12 +2484,12 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
@@ -2237,7 +2499,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -2247,12 +2509,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -2333,7 +2595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7F18F4-1A82-4DA7-BAA1-7D801E9E7A78}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2345,7 +2607,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -2355,18 +2617,18 @@
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -2392,7 +2654,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -2472,7 +2734,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
@@ -2488,18 +2750,18 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2512,7 +2774,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="15"/>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L2">
         <f>COUNTIF(A2:A30,"*")</f>
@@ -2535,7 +2797,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="13"/>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2550,7 +2812,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2565,7 +2827,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2580,7 +2842,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2766,17 +3028,17 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -2884,7 +3146,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
@@ -2900,13 +3162,13 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3157,12 +3419,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
@@ -3267,7 +3529,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
@@ -3283,13 +3545,13 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3540,7 +3802,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -3650,7 +3912,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
@@ -3666,13 +3928,13 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3923,7 +4185,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -4000,20 +4262,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="6" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="99.140625" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
@@ -4033,7 +4296,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
@@ -4049,31 +4312,45 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F2" s="16">
+        <v>45593</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L2">
         <f>COUNTIF(A2,"*")</f>
@@ -4083,52 +4360,104 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F3" s="17">
+        <v>45593</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L3">
         <f>COUNTIF(A3:A6,"*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F4" s="17">
+        <v>45593</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="K4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="F5" s="17">
+        <v>45593</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -4143,7 +4472,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -4158,7 +4487,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -4312,12 +4641,12 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -4327,79 +4656,84 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations xWindow="732" yWindow="453" count="6">
     <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="F2:F20" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otras opciones de resultado." promptTitle="Estado" prompt="¿Fue resuelto?" sqref="G2:G20" xr:uid="{00000000-0002-0000-0500-000001000000}">
-      <formula1>$A$61:$A$63</formula1>
+      <formula1>$A$62:$A$64</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="D2:D20" xr:uid="{00000000-0002-0000-0500-000002000000}">
-      <formula1>$A$58:$A$59</formula1>
+      <formula1>$A$59:$A$60</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otros tipos de verificaciones." promptTitle="Criterio de verificación" prompt="¿Que tipo de verificación involucra el error?" sqref="C2:C20" xr:uid="{00000000-0002-0000-0500-000003000000}">
-      <formula1>$A$50:$A$56</formula1>
+      <formula1>$A$50:$A$57</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsable" prompt="¿Que integrante del equipo de desarrollo realizo la revisión?" sqref="H2:H20" xr:uid="{00000000-0002-0000-0500-000004000000}">
-      <formula1>$A$65:$A$68</formula1>
+      <formula1>$A$66:$A$69</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" showDropDown="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="E2:E20" xr:uid="{00000000-0002-0000-0500-000005000000}"/>
   </dataValidations>
@@ -4443,7 +4777,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
@@ -4459,13 +4793,13 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4691,32 +5025,32 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -4796,7 +5130,7 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4835,7 +5169,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
@@ -4851,14 +5185,14 @@
       </c>
       <c r="J1" s="23"/>
       <c r="K1" s="49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
       <c r="O1" s="51"/>
       <c r="P1" s="49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q1" s="50"/>
       <c r="R1" s="50"/>
@@ -4867,7 +5201,7 @@
     </row>
     <row r="2" spans="1:20" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -4891,43 +5225,43 @@
         <v>18</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" s="25" t="s">
+      <c r="S2" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B3" s="9">
         <v>2</v>
@@ -4951,11 +5285,11 @@
         <v>18</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L3" s="31">
         <f>COUNTIF($A$2:$A$80, "*Estudio e Implementación UARGFLOW*")</f>
@@ -4974,7 +5308,7 @@
         <v>17</v>
       </c>
       <c r="P3" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="31">
         <f>COUNTIF($A$2:$A$80, "*Prototipo*")</f>
@@ -5005,7 +5339,7 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" s="35">
         <f>COUNTIF($A$2:$A$80, "*Plan de estimación*")</f>
@@ -5032,7 +5366,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L5" s="35">
         <f>COUNTIF($A$2:$A$80, "*Estudio de Factibilidad*")</f>
@@ -5059,7 +5393,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L6" s="35">
         <f>COUNTIF($A$2:$A$80, "*Informe Final de SQA*")</f>
@@ -5086,7 +5420,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L7" s="35">
         <f>COUNTIF($A$2:$A$80, "*Modelo de Negocio*")</f>
@@ -5113,7 +5447,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L8" s="35">
         <f>COUNTIF($A$2:$A$80, "*Plan de Gestión de Configuración*")</f>
@@ -5140,7 +5474,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" s="35">
         <f>COUNTIF($A$2:$A$80, "*Plan de Iteración*")</f>
@@ -5167,7 +5501,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L10" s="35">
         <f>COUNTIF($A$2:$A$80, "*Plan de Proyecto (Ejemplo Gantt)*")</f>
@@ -5194,7 +5528,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="35">
         <f>COUNTIF($A$2:$A$80, "*Plan de Proyecto*")</f>
@@ -5221,7 +5555,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L12" s="35">
         <f>COUNTIF($A$2:$A$80, "*Propuesta de Desarrollo*")</f>
@@ -5248,7 +5582,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" s="35">
         <f>COUNTIF($A$2:$A$80, "*Resumen de Entrevista*")</f>
@@ -5275,7 +5609,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" s="35">
         <f>COUNTIF($A$2:$A$80, "*Resumen de Reunión*")</f>
@@ -5302,7 +5636,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L15" s="35">
         <f>COUNTIF($A$2:$A$80, "*Plan de Calidad*")</f>
@@ -5329,7 +5663,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L16" s="35">
         <f>COUNTIF($A$2:$A$80, "*GitHub*")</f>
@@ -5356,7 +5690,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L17" s="35">
         <f>COUNTIF($A$2:$A$80, "*Herramientas y Tecnologias*")</f>
@@ -5383,7 +5717,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L18" s="35">
         <f>COUNTIF($A$2:$A$80, "*Plan Cierre iteracion fase Elaboracion iteracion 1*")</f>
@@ -5410,7 +5744,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L19" s="41">
         <f>COUNTIF($A$2:$A$80, "*Prototipo*")</f>

--- a/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
+++ b/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\03-Construccion\07- Gestion de Calidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1585EC-719A-402E-A682-B2AC26D2CF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0DBC83-5911-49BE-93F1-5873F0DAF0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Levipichun:</t>
         </r>
@@ -90,7 +90,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Por favor escriba:
@@ -146,7 +146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Levipichun:</t>
         </r>
@@ -155,7 +155,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Por favor escriba:
@@ -211,7 +211,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Levipichun:</t>
         </r>
@@ -220,7 +220,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Por favor escriba:
@@ -276,7 +276,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Levipichun:</t>
         </r>
@@ -285,7 +285,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Por favor escriba:
@@ -341,7 +341,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Levipichun:</t>
         </r>
@@ -350,7 +350,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Por favor escriba:
@@ -406,7 +406,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Levipichun:</t>
         </r>
@@ -415,7 +415,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Por favor escriba:
@@ -471,7 +471,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Levipichun:</t>
         </r>
@@ -480,7 +480,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Por favor escriba:
@@ -1115,140 +1115,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: No se encontraron errores de ortografía.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nivel de gravedad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Leve.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ubicación</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\05- Gestion de Proyecto\05- Gestion de Proyecto\C107-OSLO - Seguimiento de Riesgos IIII 27-10-2024.docx</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Descripción</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: No se encontraron errores de ortografía.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nivel de gravedad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Leve.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ubicación</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\05- Gestion de Proyecto\C106-OSLO - Identificación, Evaluación y análisis de riesgos - Anexo II 27-10-2024.xlsx</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Descripción</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">: Referencia de índice desactualizado.
 </t>
     </r>
@@ -1296,12 +1162,146 @@
       <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\05- Gestion de Proyecto\C107-OSLO - Seguimiento de Riesgos IIII 27-10-2024.docx</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: No se encontraron errores de ortografía.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Nulo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\05- Gestion de Proyecto\C106-OSLO - Identificación, Evaluación y análisis de riesgos - Anexo II 27-10-2024.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: No se encontraron errores de ortografía.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Nulo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\05- Gestion de Proyecto\05- Gestion de Proyecto\C107-OSLO - Seguimiento de Riesgos IIII 27-10-2024.docx</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,19 +1329,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2568,7 +2555,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations xWindow="600" yWindow="466" count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsable" prompt="¿Que integrante del equipo de desarrollo realizo la revisión?" sqref="H2:H20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$66:$A$69</formula1>
@@ -3087,7 +3074,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="F2:F20" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otras opciones de resultado." promptTitle="Estado" prompt="¿Fue resuelto?" sqref="G2:G20" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -4265,7 +4252,7 @@
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4347,7 +4334,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
@@ -4422,7 +4409,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
         <v>95</v>
@@ -4720,7 +4707,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations xWindow="732" yWindow="453" count="6">
     <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="F2:F20" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otras opciones de resultado." promptTitle="Estado" prompt="¿Fue resuelto?" sqref="G2:G20" xr:uid="{00000000-0002-0000-0500-000001000000}">
@@ -6518,7 +6505,7 @@
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="P1:T1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="F2:F28 F31:F63" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
     <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otros tipos de verificaciones." promptTitle="Criterio de verificación" prompt="¿Que tipo de verificación involucra el error?" sqref="C2:C28 C31:C63" xr:uid="{00000000-0002-0000-0700-000003000000}"/>

--- a/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
+++ b/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\03-Construccion\07- Gestion de Calidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0DBC83-5911-49BE-93F1-5873F0DAF0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED38293-76CD-493A-899D-3DB0BF2E762E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERS" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="115">
   <si>
     <t>Especificación de Requerimientos de Software.</t>
   </si>
@@ -1294,6 +1294,76 @@
         <scheme val="minor"/>
       </rPr>
       <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\05- Gestion de Proyecto\05- Gestion de Proyecto\C107-OSLO - Seguimiento de Riesgos IIII 27-10-2024.docx</t>
+    </r>
+  </si>
+  <si>
+    <t>Revision rutinaria</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Error encontrado en el repositorio, la base de datos de GitHub excede el minimo requerido para trabajar, las consultas de fechas y hashs de commits no responden, exceso de carpetas huerfanas que fueron elimanadas y no desindexadas, los commits pocos descriptivos hacen que el rastreo de los conflictos entre ramas y repositorios locales crezcan en rigor.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alto.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Repositorio GitHub.com Testify </t>
     </r>
   </si>
 </sst>
@@ -2627,7 +2697,7 @@
       </c>
       <c r="B3" s="28">
         <f>SUM(APOYO!N3,Riesgos!L2,ERS!L2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -4251,7 +4321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -5116,8 +5186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5284,11 +5354,11 @@
       </c>
       <c r="M3" s="32">
         <f>SUM(L3:L80)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="32">
         <f>COUNTIF(A2:A80,"*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" s="33">
         <f>COUNTIF($K$3:$K$31, "*")</f>
@@ -5314,16 +5384,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="14"/>
+    <row r="4" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F4" s="16">
+        <v>45593</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="J4" s="14"/>
       <c r="K4" s="34" t="s">
         <v>69</v>
@@ -5654,7 +5742,7 @@
       </c>
       <c r="L16" s="35">
         <f>COUNTIF($A$2:$A$80, "*GitHub*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>

--- a/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
+++ b/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\03-Construccion\07- Gestion de Calidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED38293-76CD-493A-899D-3DB0BF2E762E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D4FB8A-37BE-449B-83BF-C7FDEE887081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="116">
   <si>
     <t>Especificación de Requerimientos de Software.</t>
   </si>
@@ -1364,6 +1364,73 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">: Repositorio GitHub.com Testify </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Se sube por error el software completo a la rama de documentación.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Leve.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify</t>
     </r>
   </si>
 </sst>
@@ -2697,7 +2764,7 @@
       </c>
       <c r="B3" s="28">
         <f>SUM(APOYO!N3,Riesgos!L2,ERS!L2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -5187,7 +5254,7 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5354,11 +5421,11 @@
       </c>
       <c r="M3" s="32">
         <f>SUM(L3:L80)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" s="32">
         <f>COUNTIF(A2:A80,"*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O3" s="33">
         <f>COUNTIF($K$3:$K$31, "*")</f>
@@ -5429,16 +5496,34 @@
       <c r="S4" s="36"/>
       <c r="T4" s="37"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="13"/>
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F5" s="17">
+        <v>45602</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="J5" s="13"/>
       <c r="K5" s="38" t="s">
         <v>57</v>
@@ -5742,7 +5827,7 @@
       </c>
       <c r="L16" s="35">
         <f>COUNTIF($A$2:$A$80, "*GitHub*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
@@ -6596,7 +6681,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="F2:F28 F31:F63" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otros tipos de verificaciones." promptTitle="Criterio de verificación" prompt="¿Que tipo de verificación involucra el error?" sqref="C2:C28 C31:C63" xr:uid="{00000000-0002-0000-0700-000003000000}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otros tipos de verificaciones." promptTitle="Criterio de verificación" prompt="¿Que tipo de verificación involucra el error?" sqref="C31:C63 C2:C28" xr:uid="{00000000-0002-0000-0700-000003000000}"/>
     <dataValidation errorStyle="warning" showDropDown="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="E2:E28 E31:E63" xr:uid="{00000000-0002-0000-0700-000005000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsable" prompt="¿Que integrante del equipo de desarrollo realizo la revisión?" sqref="H2:H90" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>$A$107:$A$110</formula1>

--- a/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
+++ b/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\03-Construccion\07- Gestion de Calidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D4FB8A-37BE-449B-83BF-C7FDEE887081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79558154-22B5-4117-99AF-36DBB135E191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <sheet name="Riesgos" sheetId="6" r:id="rId7"/>
     <sheet name="MdU" sheetId="7" r:id="rId8"/>
     <sheet name="APOYO" sheetId="8" r:id="rId9"/>
-    <sheet name="RevisionesTotales" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -572,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="77">
   <si>
     <t>Especificación de Requerimientos de Software.</t>
   </si>
@@ -745,139 +744,19 @@
     <t>Tiempo empleado:</t>
   </si>
   <si>
-    <t>Estudio de Factibilidad</t>
-  </si>
-  <si>
-    <t>Estudio e Implementación UARGFLOW</t>
-  </si>
-  <si>
-    <t>Informe Final de SQA</t>
-  </si>
-  <si>
-    <t>Modelo de Negocio</t>
-  </si>
-  <si>
-    <t>Plan de Gestión de Configuración</t>
-  </si>
-  <si>
     <t>Plan de Iteración</t>
   </si>
   <si>
-    <t>Plan de Proyecto (Ejemplo Gantt)</t>
-  </si>
-  <si>
-    <t>Plan de Proyecto</t>
-  </si>
-  <si>
-    <t>Propuesta de Desarrollo</t>
-  </si>
-  <si>
-    <t>Resumen de Entrevista</t>
-  </si>
-  <si>
-    <t>Resumen de Reunión</t>
-  </si>
-  <si>
     <t>Ortográfico</t>
   </si>
   <si>
-    <t>Plan de Estimación</t>
-  </si>
-  <si>
-    <t>Plan de Calidad</t>
-  </si>
-  <si>
-    <t>Herramientas y Tecnologias</t>
-  </si>
-  <si>
     <t>GitHub</t>
   </si>
   <si>
     <t>Tiempo empleado</t>
   </si>
   <si>
-    <t>Plan Cierre iteracion fase Elaboracion iteracion 1</t>
-  </si>
-  <si>
     <t>Índice no funcional</t>
-  </si>
-  <si>
-    <t>Documento</t>
-  </si>
-  <si>
-    <t>cantidad revisiones</t>
-  </si>
-  <si>
-    <t>cantidad documentos</t>
-  </si>
-  <si>
-    <t>Total revisiones</t>
-  </si>
-  <si>
-    <t>Cantidad de revisiones hechas</t>
-  </si>
-  <si>
-    <t>Documentos revisados en total</t>
-  </si>
-  <si>
-    <t>Confirmación</t>
-  </si>
-  <si>
-    <t>Documentos claves revisados en total</t>
-  </si>
-  <si>
-    <t>Fase Elaboracion Iteracion 1</t>
-  </si>
-  <si>
-    <t>Fase Elaboracion Iteracion 2</t>
-  </si>
-  <si>
-    <t>Prototipo</t>
-  </si>
-  <si>
-    <t>Fase Elaboracion 1</t>
-  </si>
-  <si>
-    <t>Fase Elaboracion 2</t>
-  </si>
-  <si>
-    <t>Fase - Iteración</t>
-  </si>
-  <si>
-    <t>Fase Contruccion 1</t>
-  </si>
-  <si>
-    <t>Fase Contruccion 2</t>
-  </si>
-  <si>
-    <t>Fase Contruccion 3</t>
-  </si>
-  <si>
-    <t>Fase Final</t>
-  </si>
-  <si>
-    <t>Elaboración 2</t>
-  </si>
-  <si>
-    <t>Construcción 1</t>
-  </si>
-  <si>
-    <t>Construcción 2</t>
-  </si>
-  <si>
-    <t>Construcción 3</t>
-  </si>
-  <si>
-    <t>Elaboración 1</t>
-  </si>
-  <si>
-    <t>Elaboracion iteracion 1</t>
-  </si>
-  <si>
-    <t>Elaboracion iteracion 2</t>
-  </si>
-  <si>
-    <t>Cantidad de documentos</t>
   </si>
   <si>
     <t>CRUD Escenario</t>
@@ -1433,6 +1312,73 @@
       <t>: Repositorio Testify</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Se modifican los nombre de las carpetas para prueba
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Leve.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\03- Pruebas</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1474,7 +1420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1487,26 +1433,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1542,265 +1470,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1857,86 +1531,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2247,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I4"/>
+      <selection activeCell="K1" sqref="K1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,12 +1861,9 @@
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="99.140625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -2297,17 +1892,8 @@
         <v>9</v>
       </c>
       <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2322,18 +1908,8 @@
       <c r="H2" s="8"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2">
-        <f>COUNTIF(A2:A3,"*")</f>
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="2">
         <v>2</v>
@@ -2346,15 +1922,8 @@
       <c r="H3" s="3"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3">
-        <f>COUNTIF(A4:A11,"*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="2">
         <v>3</v>
@@ -2367,11 +1936,8 @@
       <c r="H4" s="3"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>4</v>
@@ -2384,11 +1950,8 @@
       <c r="H5" s="3"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
-      <c r="K5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>5</v>
@@ -2401,11 +1964,8 @@
       <c r="H6" s="3"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>6</v>
@@ -2418,11 +1978,8 @@
       <c r="H7" s="3"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>7</v>
@@ -2436,7 +1993,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -2449,7 +2006,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -2461,9 +2018,8 @@
       <c r="H10" s="3"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -2475,9 +2031,8 @@
       <c r="H11" s="3"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -2489,9 +2044,8 @@
       <c r="H12" s="3"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -2503,9 +2057,8 @@
       <c r="H13" s="3"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -2517,9 +2070,8 @@
       <c r="H14" s="3"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -2531,9 +2083,8 @@
       <c r="H15" s="3"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -2545,9 +2096,8 @@
       <c r="H16" s="3"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>16</v>
       </c>
@@ -2559,9 +2109,8 @@
       <c r="H17" s="3"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>17</v>
       </c>
@@ -2573,9 +2122,8 @@
       <c r="H18" s="3"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>18</v>
       </c>
@@ -2587,9 +2135,8 @@
       <c r="H19" s="3"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>19</v>
       </c>
@@ -2601,9 +2148,8 @@
       <c r="H20" s="3"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -2633,12 +2179,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -2715,102 +2261,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7F18F4-1A82-4DA7-BAA1-7D801E9E7A78}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
-    </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48">
-        <f>SUM(APOYO!O3,Riesgos!L2,ERS!L2)</f>
-        <v>19</v>
-      </c>
-      <c r="B3" s="28">
-        <f>SUM(APOYO!N3,Riesgos!L2,ERS!L2)</f>
-        <v>6</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28">
-        <v>2</v>
-      </c>
-      <c r="F3" s="29">
-        <f>SUM(Riesgos!L2,ERS!L2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>SUM(APOYO!T3,MCU!M2,ERS!M2)</f>
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <f>SUM(APOYO!S3,MCU!L2,ERS!L3)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A4:F4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CA7489-87FD-4561-8F0C-4E8A76A52F34}">
   <dimension ref="A1"/>
@@ -2825,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2840,11 +2290,9 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="99.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -2873,19 +2321,10 @@
         <v>9</v>
       </c>
       <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2897,18 +2336,8 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="15"/>
-      <c r="K2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2">
-        <f>COUNTIF(A2:A30,"*")</f>
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="2">
         <v>2</v>
@@ -2920,11 +2349,8 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="13"/>
-      <c r="K3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>3</v>
@@ -2935,11 +2361,8 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="K4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>4</v>
@@ -2950,11 +2373,8 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>5</v>
@@ -2965,11 +2385,8 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>6</v>
@@ -2981,7 +2398,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>7</v>
@@ -2993,7 +2410,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -3004,7 +2421,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -3015,7 +2432,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -3026,7 +2443,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -3037,7 +2454,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -3048,7 +2465,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -3059,7 +2476,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -3070,7 +2487,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -3152,12 +2569,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -3237,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,11 +2669,9 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="99.140625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -3285,17 +2700,8 @@
         <v>9</v>
       </c>
       <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3309,11 +2715,8 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="7"/>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -3324,7 +2727,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>3</v>
@@ -3336,7 +2739,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>4</v>
@@ -3348,7 +2751,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>5</v>
@@ -3360,7 +2763,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>6</v>
@@ -3372,7 +2775,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>7</v>
@@ -3384,7 +2787,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -3395,7 +2798,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -3406,7 +2809,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -3417,7 +2820,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -3428,7 +2831,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -3439,7 +2842,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -3450,7 +2853,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -3461,7 +2864,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -3543,7 +2946,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -3620,10 +3023,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,11 +3038,9 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="99.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -3668,17 +3069,8 @@
         <v>9</v>
       </c>
       <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -3692,11 +3084,8 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="7"/>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -3707,7 +3096,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>3</v>
@@ -3719,7 +3108,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>4</v>
@@ -3731,7 +3120,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>5</v>
@@ -3743,7 +3132,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>6</v>
@@ -3755,7 +3144,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>7</v>
@@ -3767,7 +3156,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -3778,7 +3167,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -3789,7 +3178,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -3800,7 +3189,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -3811,7 +3200,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -3822,7 +3211,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -3833,7 +3222,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -3844,7 +3233,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -3926,7 +3315,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -4003,10 +3392,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,11 +3407,9 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="99.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -4051,17 +3438,8 @@
         <v>9</v>
       </c>
       <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -4075,11 +3453,8 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="7"/>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -4090,7 +3465,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>3</v>
@@ -4102,7 +3477,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>4</v>
@@ -4114,7 +3489,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>5</v>
@@ -4126,7 +3501,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>6</v>
@@ -4138,7 +3513,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>7</v>
@@ -4150,7 +3525,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -4161,7 +3536,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -4172,7 +3547,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -4183,7 +3558,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -4194,7 +3569,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -4205,7 +3580,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -4216,7 +3591,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -4227,7 +3602,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -4309,7 +3684,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -4386,10 +3761,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4402,11 +3777,9 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="99.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -4435,25 +3808,16 @@
         <v>9</v>
       </c>
       <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>13</v>
@@ -4471,28 +3835,18 @@
         <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2">
-        <f>COUNTIF(A2,"*")</f>
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -4510,25 +3864,18 @@
         <v>18</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3">
-        <f>COUNTIF(A3:A6,"*")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
@@ -4546,15 +3893,12 @@
         <v>18</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -4578,13 +3922,10 @@
         <v>18</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>5</v>
@@ -4595,11 +3936,8 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="K6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>6</v>
@@ -4610,11 +3948,8 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>7</v>
@@ -4626,7 +3961,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -4637,7 +3972,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -4648,7 +3983,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -4659,7 +3994,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -4670,7 +4005,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -4681,7 +4016,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -4692,7 +4027,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -4703,7 +4038,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -4780,17 +4115,17 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -4868,10 +4203,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,11 +4218,9 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="99.140625" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -4916,17 +4249,8 @@
         <v>9</v>
       </c>
       <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -4940,11 +4264,8 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="7"/>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -4955,7 +4276,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>3</v>
@@ -4967,7 +4288,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>4</v>
@@ -4979,7 +4300,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>5</v>
@@ -4991,7 +4312,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>6</v>
@@ -5003,7 +4324,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>7</v>
@@ -5015,7 +4336,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -5026,7 +4347,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -5037,7 +4358,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -5048,7 +4369,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -5059,7 +4380,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -5070,7 +4391,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -5081,7 +4402,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -5092,7 +4413,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -5174,7 +4495,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -5251,10 +4572,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5269,17 +4590,9 @@
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="99.140625" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -5293,7 +4606,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>22</v>
@@ -5307,25 +4620,11 @@
       <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="51"/>
-    </row>
-    <row r="2" spans="1:20" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
@@ -5349,43 +4648,13 @@
         <v>18</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B3" s="9">
         <v>2</v>
@@ -5409,57 +4678,19 @@
         <v>18</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="31">
-        <f>COUNTIF($A$2:$A$80, "*Estudio e Implementación UARGFLOW*")</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="32">
-        <f>SUM(L3:L80)</f>
-        <v>3</v>
-      </c>
-      <c r="N3" s="32">
-        <f>COUNTIF(A2:A80,"*")</f>
-        <v>4</v>
-      </c>
-      <c r="O3" s="33">
-        <f>COUNTIF($K$3:$K$31, "*")</f>
-        <v>17</v>
-      </c>
-      <c r="P3" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="31">
-        <f>COUNTIF($A$2:$A$80, "*Prototipo*")</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="32">
-        <f>SUM(Q3:Q80)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="32">
-        <f>COUNTIF(A29:A90,"*")</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="32">
-        <f>COUNTIF(A29:A90,"*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B4" s="9">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
@@ -5477,34 +4708,19 @@
         <v>18</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="J4" s="14"/>
-      <c r="K4" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Plan de estimación*")</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="37"/>
-    </row>
-    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
@@ -5522,53 +4738,41 @@
         <v>18</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="J5" s="13"/>
-      <c r="K5" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Estudio de Factibilidad*")</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="37"/>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="F6" s="17">
+        <v>45602</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="J6" s="13"/>
-      <c r="K6" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Informe Final de SQA*")</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="37"/>
-    </row>
-    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="8"/>
@@ -5579,23 +4783,8 @@
       <c r="H7" s="3"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Modelo de Negocio*")</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="37"/>
-    </row>
-    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="8"/>
@@ -5606,23 +4795,8 @@
       <c r="H8" s="3"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Plan de Gestión de Configuración*")</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="37"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="2"/>
       <c r="C9" s="8"/>
@@ -5633,23 +4807,8 @@
       <c r="H9" s="3"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Plan de Iteración*")</f>
-        <v>1</v>
-      </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="37"/>
-    </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="2"/>
       <c r="C10" s="8"/>
@@ -5660,23 +4819,8 @@
       <c r="H10" s="3"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Plan de Proyecto (Ejemplo Gantt)*")</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="37"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="2"/>
       <c r="C11" s="8"/>
@@ -5687,23 +4831,8 @@
       <c r="H11" s="3"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Plan de Proyecto*")</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="37"/>
-    </row>
-    <row r="12" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="8"/>
@@ -5714,23 +4843,8 @@
       <c r="H12" s="3"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Propuesta de Desarrollo*")</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="37"/>
-    </row>
-    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="2"/>
       <c r="C13" s="8"/>
@@ -5741,23 +4855,8 @@
       <c r="H13" s="3"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Resumen de Entrevista*")</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="37"/>
-    </row>
-    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="2"/>
       <c r="C14" s="8"/>
@@ -5768,23 +4867,8 @@
       <c r="H14" s="3"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Resumen de Reunión*")</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="37"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="2"/>
       <c r="C15" s="8"/>
@@ -5795,23 +4879,8 @@
       <c r="H15" s="3"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Plan de Calidad*")</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="37"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="2"/>
       <c r="C16" s="8"/>
@@ -5822,23 +4891,8 @@
       <c r="H16" s="3"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="35">
-        <f>COUNTIF($A$2:$A$80, "*GitHub*")</f>
-        <v>2</v>
-      </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
-    </row>
-    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="2"/>
       <c r="C17" s="8"/>
@@ -5849,23 +4903,8 @@
       <c r="H17" s="3"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Herramientas y Tecnologias*")</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="37"/>
-    </row>
-    <row r="18" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="2"/>
       <c r="C18" s="8"/>
@@ -5876,23 +4915,8 @@
       <c r="H18" s="3"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="35">
-        <f>COUNTIF($A$2:$A$80, "*Plan Cierre iteracion fase Elaboracion iteracion 1*")</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="37"/>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="2"/>
       <c r="C19" s="8"/>
@@ -5903,23 +4927,8 @@
       <c r="H19" s="3"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="41">
-        <f>COUNTIF($A$2:$A$80, "*Prototipo*")</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="43"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="2"/>
       <c r="C20" s="8"/>
@@ -5930,10 +4939,8 @@
       <c r="H20" s="3"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="2"/>
       <c r="C21" s="8"/>
@@ -5944,10 +4951,8 @@
       <c r="H21" s="3"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="2"/>
       <c r="C22" s="8"/>
@@ -5958,10 +4963,8 @@
       <c r="H22" s="3"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="2"/>
       <c r="C23" s="19"/>
@@ -5972,10 +4975,8 @@
       <c r="H23" s="3"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="20"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="2"/>
       <c r="C24" s="8"/>
@@ -5986,9 +4987,8 @@
       <c r="H24" s="3"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="8"/>
@@ -5999,9 +4999,8 @@
       <c r="H25" s="3"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="2"/>
       <c r="C26" s="19"/>
@@ -6012,9 +5011,8 @@
       <c r="H26" s="3"/>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="2"/>
       <c r="C27" s="8"/>
@@ -6025,9 +5023,8 @@
       <c r="H27" s="3"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="2"/>
       <c r="C28" s="8"/>
@@ -6038,33 +5035,32 @@
       <c r="H28" s="3"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-    </row>
-    <row r="29" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="2"/>
       <c r="C29" s="8"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="2"/>
       <c r="C30" s="19"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="1:20" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="2"/>
       <c r="C31" s="19"/>
@@ -6075,9 +5071,8 @@
       <c r="H31" s="3"/>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="19"/>
@@ -6088,9 +5083,8 @@
       <c r="H32" s="3"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="2"/>
       <c r="C33" s="19"/>
@@ -6101,9 +5095,8 @@
       <c r="H33" s="3"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="2"/>
       <c r="C34" s="19"/>
@@ -6114,9 +5107,8 @@
       <c r="H34" s="3"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="2"/>
       <c r="C35" s="19"/>
@@ -6127,9 +5119,8 @@
       <c r="H35" s="3"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="2"/>
       <c r="C36" s="19"/>
@@ -6140,9 +5131,8 @@
       <c r="H36" s="3"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="2"/>
       <c r="C37" s="19"/>
@@ -6153,9 +5143,8 @@
       <c r="H37" s="3"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="2"/>
       <c r="C38" s="19"/>
@@ -6166,9 +5155,8 @@
       <c r="H38" s="3"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-    </row>
-    <row r="39" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="2"/>
       <c r="C39" s="19"/>
@@ -6179,9 +5167,8 @@
       <c r="H39" s="3"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-    </row>
-    <row r="40" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="2"/>
       <c r="C40" s="19"/>
@@ -6192,9 +5179,8 @@
       <c r="H40" s="3"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="2"/>
       <c r="C41" s="19"/>
@@ -6205,9 +5191,8 @@
       <c r="H41" s="3"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="2"/>
       <c r="C42" s="8"/>
@@ -6218,9 +5203,8 @@
       <c r="H42" s="3"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="2"/>
       <c r="C43" s="8"/>
@@ -6231,9 +5215,8 @@
       <c r="H43" s="3"/>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="2"/>
       <c r="C44" s="8"/>
@@ -6244,9 +5227,8 @@
       <c r="H44" s="3"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="2"/>
       <c r="C45" s="8"/>
@@ -6257,9 +5239,8 @@
       <c r="H45" s="3"/>
       <c r="I45" s="15"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="2"/>
       <c r="C46" s="8"/>
@@ -6270,9 +5251,8 @@
       <c r="H46" s="3"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="2"/>
       <c r="C47" s="8"/>
@@ -6283,9 +5263,8 @@
       <c r="H47" s="3"/>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="2"/>
       <c r="C48" s="8"/>
@@ -6296,9 +5275,8 @@
       <c r="H48" s="3"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="2"/>
       <c r="C49" s="8"/>
@@ -6309,9 +5287,8 @@
       <c r="H49" s="3"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="2"/>
       <c r="C50" s="8"/>
@@ -6322,9 +5299,8 @@
       <c r="H50" s="3"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="2"/>
       <c r="C51" s="8"/>
@@ -6335,9 +5311,8 @@
       <c r="H51" s="3"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="2"/>
       <c r="C52" s="8"/>
@@ -6348,9 +5323,8 @@
       <c r="H52" s="3"/>
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="2"/>
       <c r="C53" s="8"/>
@@ -6361,9 +5335,8 @@
       <c r="H53" s="3"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="2"/>
       <c r="C54" s="8"/>
@@ -6374,9 +5347,8 @@
       <c r="H54" s="3"/>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="2"/>
       <c r="C55" s="8"/>
@@ -6387,9 +5359,8 @@
       <c r="H55" s="3"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="2"/>
       <c r="C56" s="8"/>
@@ -6400,9 +5371,8 @@
       <c r="H56" s="3"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="2"/>
       <c r="C57" s="8"/>
@@ -6413,9 +5383,8 @@
       <c r="H57" s="3"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="2"/>
       <c r="C58" s="8"/>
@@ -6426,9 +5395,8 @@
       <c r="H58" s="3"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
@@ -6439,9 +5407,8 @@
       <c r="H59" s="3"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
@@ -6452,9 +5419,8 @@
       <c r="H60" s="3"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
@@ -6465,9 +5431,8 @@
       <c r="H61" s="3"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
@@ -6478,9 +5443,8 @@
       <c r="H62" s="3"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
@@ -6491,9 +5455,8 @@
       <c r="H63" s="3"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -6674,15 +5637,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="P1:T1"/>
-  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="F2:F28 F31:F63" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="F31:F63 F2:F28" xr:uid="{00000000-0002-0000-0700-000000000000}"/>
     <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otros tipos de verificaciones." promptTitle="Criterio de verificación" prompt="¿Que tipo de verificación involucra el error?" sqref="C31:C63 C2:C28" xr:uid="{00000000-0002-0000-0700-000003000000}"/>
-    <dataValidation errorStyle="warning" showDropDown="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="E2:E28 E31:E63" xr:uid="{00000000-0002-0000-0700-000005000000}"/>
+    <dataValidation errorStyle="warning" showDropDown="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="E31:E63 E2:E28" xr:uid="{00000000-0002-0000-0700-000005000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsable" prompt="¿Que integrante del equipo de desarrollo realizo la revisión?" sqref="H2:H90" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>$A$107:$A$110</formula1>
     </dataValidation>

--- a/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
+++ b/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\03-Construccion\07- Gestion de Calidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79558154-22B5-4117-99AF-36DBB135E191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDBEF4F-A180-4DF6-83C9-8DACA54DA55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERS" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
 Descripción:
 Nivel de gravedad:
 Ubicación:
-Si se realizó la misma revision a distintos productos ingrese la palabra "Repetido"
+Si se realizó la misma revisión a distintos productos ingrese la palabra "Repetido"
 </t>
         </r>
       </text>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="78">
   <si>
     <t>Especificación de Requerimientos de Software.</t>
   </si>
@@ -1377,6 +1377,73 @@
         <scheme val="minor"/>
       </rPr>
       <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\03- Pruebas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Referencia de índice desactualizado en el documento considerado "clave" en su formato .docx y .pdf.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Leve.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\01- Analisis y Diseño\C103 - Arquitectura del Sistema,docx</t>
     </r>
   </si>
 </sst>
@@ -3023,17 +3090,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
@@ -3070,20 +3137,34 @@
       </c>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F2" s="16">
+        <v>45602</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
@@ -3315,56 +3396,61 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3372,21 +3458,22 @@
   <dataValidations count="6">
     <dataValidation errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="F2:F20" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otras opciones de resultado." promptTitle="Estado" prompt="¿Fue resuelto?" sqref="G2:G20" xr:uid="{00000000-0002-0000-0300-000001000000}">
-      <formula1>$A$62:$A$64</formula1>
+      <formula1>$A$63:$A$65</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="D2:D20" xr:uid="{00000000-0002-0000-0300-000002000000}">
-      <formula1>$A$59:$A$60</formula1>
+      <formula1>$A$60:$A$61</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="No permitido" error="No se permiten otros tipos de verificaciones." promptTitle="Criterio de verificación" prompt="¿Que tipo de verificación involucra el error?" sqref="C2:C20" xr:uid="{00000000-0002-0000-0300-000003000000}">
-      <formula1>$A$50:$A$56</formula1>
+      <formula1>$A$50:$A$57</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Responsable" prompt="¿Que integrante del equipo de desarrollo realizo la revisión?" sqref="H2:H20" xr:uid="{00000000-0002-0000-0300-000004000000}">
-      <formula1>$A$66:$A$69</formula1>
+      <formula1>$A$67:$A$70</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" showDropDown="1" showErrorMessage="1" errorTitle="No permitido" error="No se permite otra opción de chequeo." promptTitle="Chequeado" prompt="¿Fue este error chequeado?" sqref="E2:E20" xr:uid="{00000000-0002-0000-0300-000005000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3764,7 +3851,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N1048576"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4574,8 +4661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
+++ b/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\03-Construccion\07- Gestion de Calidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDBEF4F-A180-4DF6-83C9-8DACA54DA55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0646CD6B-D645-45B7-8FD4-856FFE58A6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERS" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="79">
   <si>
     <t>Especificación de Requerimientos de Software.</t>
   </si>
@@ -1444,6 +1444,73 @@
         <scheme val="minor"/>
       </rPr>
       <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\01- Analisis y Diseño\C103 - Arquitectura del Sistema,docx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Se eliminan archivos innecesarios de la rama de documentación y carpeta de "implementacion" duplicada y vacía.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Leve.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\</t>
     </r>
   </si>
 </sst>
@@ -3092,7 +3159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -4661,8 +4728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4859,16 +4926,34 @@
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="15"/>
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F7" s="17">
+        <v>45602</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">

--- a/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
+++ b/Fases_de_desarrollo/03-Construccion/07- Gestion de Calidad/ChecklistProductoClave.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\03-Construccion\07- Gestion de Calidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0646CD6B-D645-45B7-8FD4-856FFE58A6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C0A14D-D629-4B24-B257-8278D55F79C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="81">
   <si>
     <t>Especificación de Requerimientos de Software.</t>
   </si>
@@ -1511,6 +1511,76 @@
         <scheme val="minor"/>
       </rPr>
       <t>: Repositorio Testify\Fases_de_desarrollo\03-Construccion\</t>
+    </r>
+  </si>
+  <si>
+    <t>Resumen de reunion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Descripción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Se añade el archivo faltante correspondiente a la reunión 23.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nivel de gravedad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Leve.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ubicación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Repositorio Testify\Registro_Reuniones</t>
     </r>
   </si>
 </sst>
@@ -3160,7 +3230,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4729,7 +4799,7 @@
   <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4956,16 +5026,34 @@
       </c>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="15"/>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="F8" s="17">
+        <v>45602</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
